--- a/DATA_goal/Junction_Flooding_368.xlsx
+++ b/DATA_goal/Junction_Flooding_368.xlsx
@@ -449,7 +449,7 @@
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -461,8 +461,8 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,55 +759,55 @@
         <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
@@ -816,46 +816,46 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X3" s="4" t="n">
+      <c r="AF3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>0.08</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -863,55 +863,55 @@
         <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
@@ -920,46 +920,46 @@
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AD4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>5.6</v>
+        <v>56.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.35</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_368.xlsx
+++ b/DATA_goal/Junction_Flooding_368.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.00694444445</v>
+        <v>45049.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.01388888889</v>
+        <v>45049.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.58</v>
+        <v>20.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>15.086</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.41</v>
+        <v>1.894</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.61</v>
+        <v>44.851</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>35.853</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>15.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.78</v>
+        <v>59.534</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.15</v>
+        <v>24.983</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>10.967</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>15.859</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.26</v>
+        <v>17.959</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.72</v>
+        <v>19.221</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.972</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.08</v>
+        <v>16.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.25</v>
+        <v>22.781</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.1</v>
+        <v>13.928</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.54</v>
+        <v>1.372</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>238.748</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.02</v>
+        <v>45.164</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.79</v>
+        <v>14.922</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.19</v>
+        <v>29.986</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.8</v>
+        <v>15.78</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>2.529</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.92</v>
+        <v>30.159</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>13.181</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.05</v>
+        <v>11.837</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.33</v>
+        <v>13.862</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.54</v>
+        <v>18.902</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.08</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.74</v>
+        <v>54.309</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>8.233000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.08</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.02083333334</v>
+        <v>45049.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.18</v>
+        <v>8.003</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.4</v>
+        <v>5.863</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.023</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.44</v>
+        <v>17.731</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.15</v>
+        <v>13.823</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>6.223</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.01</v>
+        <v>28.958</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.28</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.03</v>
+        <v>4.326</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.14</v>
+        <v>5.989</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.35</v>
+        <v>7.098</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.46</v>
+        <v>7.675</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>1.892</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.12</v>
+        <v>6.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.19</v>
+        <v>5.681</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.866</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>89.983</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.98</v>
+        <v>18.051</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.61</v>
+        <v>5.899</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.92</v>
+        <v>11.825</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.173</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>1.091</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.72</v>
+        <v>13.935</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>5.211</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.09</v>
+        <v>4.768</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.33</v>
+        <v>5.568</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.5</v>
+        <v>7.469</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.42</v>
+        <v>26.675</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.05</v>
+        <v>3.169</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.2</v>
+        <v>7.377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.02777777778</v>
+        <v>45049.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.8</v>
+        <v>23.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.03</v>
+        <v>17.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.35</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.8</v>
+        <v>51.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9</v>
+        <v>41.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.39</v>
+        <v>18.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.97</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.18</v>
+        <v>28.48</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.63</v>
+        <v>12.72</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.09</v>
+        <v>18.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.58</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.95</v>
+        <v>21.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.25</v>
+        <v>5.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.91</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.68</v>
+        <v>26.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.34</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>56.01</v>
+        <v>273.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.21</v>
+        <v>51.45</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.01</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.71</v>
+        <v>34.55</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.22</v>
+        <v>18.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>2.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.87</v>
+        <v>34.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.35</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.81</v>
+        <v>13.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.5</v>
+        <v>15.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.89</v>
+        <v>21.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.07</v>
+        <v>62.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.05</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.47</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_368.xlsx
+++ b/DATA_goal/Junction_Flooding_368.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45049.50694444445</v>
+        <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.726</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.333</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.404</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.56</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.15</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.176</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.228</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.347</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.245</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.323</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.191</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.44</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.647</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.655</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.955</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.648</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.093</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.223</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.834</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.982</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.964</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.048999999999999</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.597</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.05</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.629</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.562</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.942</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.682</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.628</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.075</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.978</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45049.51388888889</v>
+        <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.441</v>
+        <v>1.579</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.086</v>
+        <v>0.332</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.894</v>
+        <v>0.407</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.851</v>
+        <v>1.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.853</v>
+        <v>0.012</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.964</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>59.534</v>
+        <v>2.779</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.983</v>
+        <v>0.149</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.967</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.859</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.959</v>
+        <v>0.263</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.221</v>
+        <v>0.723</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.972</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.166</v>
+        <v>0.076</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.781</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.928</v>
+        <v>0.105</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.372</v>
+        <v>0.535</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.894</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.748</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.164</v>
+        <v>1.022</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.922</v>
+        <v>0.786</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.986</v>
+        <v>1.194</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.78</v>
+        <v>0.804</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.529</v>
+        <v>0.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.159</v>
+        <v>0.916</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.181</v>
+        <v>0.208</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.837</v>
+        <v>0.048</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.862</v>
+        <v>0.335</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.902</v>
+        <v>0.535</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.136</v>
+        <v>0.078</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>54.309</v>
+        <v>1.744</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.233000000000001</v>
+        <v>0.014</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.656</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45049.52083333334</v>
+        <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.003</v>
+        <v>1.185</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.863</v>
+        <v>0.401</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.023</v>
+        <v>0.261</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.731</v>
+        <v>1.444</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.823</v>
+        <v>0.151</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.223</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.958</v>
+        <v>2.008</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.284</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.326</v>
+        <v>0.033</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.989</v>
+        <v>0.138</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.098</v>
+        <v>0.352</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.675</v>
+        <v>0.464</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.892</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.391</v>
+        <v>0.121</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.327</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.681</v>
+        <v>0.19</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.866</v>
+        <v>0.343</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.402</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.983</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.051</v>
+        <v>0.985</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.899</v>
+        <v>0.612</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.825</v>
+        <v>0.92</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.173</v>
+        <v>0.598</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.091</v>
+        <v>0.046</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.935</v>
+        <v>0.715</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.211</v>
+        <v>0.265</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.768</v>
+        <v>0.092</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.568</v>
+        <v>0.333</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.469</v>
+        <v>0.503</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.722</v>
+        <v>0.079</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.675</v>
+        <v>1.424</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.169</v>
+        <v>0.046</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.377</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45049.52777777778</v>
+        <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.41</v>
+        <v>5.803</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.49</v>
+        <v>4.027</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.355</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.19</v>
+        <v>11.803</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.69</v>
+        <v>9.002000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.37</v>
+        <v>4.393</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.01000000000001</v>
+        <v>11.972</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.48</v>
+        <v>6.175</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.72</v>
+        <v>2.632</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.63</v>
+        <v>4.086</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.53</v>
+        <v>4.576</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.86</v>
+        <v>4.951</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.78</v>
+        <v>1.246</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.42</v>
+        <v>3.913</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.16</v>
+        <v>5.677</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.56</v>
+        <v>3.343</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.303</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.122</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>273.08</v>
+        <v>56.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.45</v>
+        <v>11.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17</v>
+        <v>4.006</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.55</v>
+        <v>7.707</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.16</v>
+        <v>4.225</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.6</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.25</v>
+        <v>5.869</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.02</v>
+        <v>3.349</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.33</v>
+        <v>2.813</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.65</v>
+        <v>3.498</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.59</v>
+        <v>4.893</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.074</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.58</v>
+        <v>10.066</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>2.051</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.26</v>
+        <v>4.595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_368.xlsx
+++ b/DATA_goal/Junction_Flooding_368.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.00694444445</v>
+        <v>45049.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.01388888889</v>
+        <v>45049.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.579</v>
+        <v>20.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.332</v>
+        <v>15.086</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.407</v>
+        <v>1.894</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.61</v>
+        <v>44.851</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.012</v>
+        <v>35.853</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>15.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.779</v>
+        <v>59.534</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.149</v>
+        <v>24.983</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>10.967</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.07199999999999999</v>
+        <v>15.859</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.263</v>
+        <v>17.959</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.723</v>
+        <v>19.221</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>4.972</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.076</v>
+        <v>16.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.25</v>
+        <v>22.781</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.105</v>
+        <v>13.928</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.535</v>
+        <v>1.372</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>238.748</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.022</v>
+        <v>45.164</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.786</v>
+        <v>14.922</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.194</v>
+        <v>29.986</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.804</v>
+        <v>15.78</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>2.529</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.916</v>
+        <v>30.159</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.208</v>
+        <v>13.181</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.048</v>
+        <v>11.837</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.335</v>
+        <v>13.862</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.535</v>
+        <v>18.902</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.078</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.744</v>
+        <v>54.309</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.014</v>
+        <v>8.233000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.077</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.02083333334</v>
+        <v>45049.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.185</v>
+        <v>8.003</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.401</v>
+        <v>5.863</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.261</v>
+        <v>1.023</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.444</v>
+        <v>17.731</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.151</v>
+        <v>13.823</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>6.223</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.008</v>
+        <v>28.958</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.284</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.033</v>
+        <v>4.326</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.138</v>
+        <v>5.989</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.352</v>
+        <v>7.098</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.464</v>
+        <v>7.675</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>1.892</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.121</v>
+        <v>6.391</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.327</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.19</v>
+        <v>5.681</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.343</v>
+        <v>0.866</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>89.983</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.985</v>
+        <v>18.051</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.612</v>
+        <v>5.899</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.92</v>
+        <v>11.825</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.598</v>
+        <v>6.173</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.046</v>
+        <v>1.091</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.715</v>
+        <v>13.935</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.265</v>
+        <v>5.211</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.092</v>
+        <v>4.768</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.333</v>
+        <v>5.568</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.503</v>
+        <v>7.469</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.079</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.424</v>
+        <v>26.675</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.046</v>
+        <v>3.169</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.196</v>
+        <v>7.377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.02777777778</v>
+        <v>45049.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.803</v>
+        <v>23.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.027</v>
+        <v>17.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.355</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.803</v>
+        <v>51.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.002000000000001</v>
+        <v>41.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.393</v>
+        <v>18.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.972</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.175</v>
+        <v>28.48</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.632</v>
+        <v>12.72</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.086</v>
+        <v>18.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.576</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.951</v>
+        <v>21.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.246</v>
+        <v>5.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.913</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.677</v>
+        <v>26.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.343</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.303</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.122</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>56.01</v>
+        <v>273.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.21</v>
+        <v>51.45</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.006</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.707</v>
+        <v>34.55</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.225</v>
+        <v>18.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>2.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.869</v>
+        <v>34.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.349</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.813</v>
+        <v>13.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.498</v>
+        <v>15.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.893</v>
+        <v>21.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.074</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.066</v>
+        <v>62.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.051</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.595</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.47</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>
